--- a/data/trans_orig/P50_1-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P50_1-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>14290</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8139</v>
+        <v>8489</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25981</v>
+        <v>27414</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03692698586214641</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02103275051654379</v>
+        <v>0.02193712683571573</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06713868584614961</v>
+        <v>0.07084233088861164</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9928</v>
+        <v>10266</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01070483128082853</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03652783723619175</v>
+        <v>0.03777068690281717</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -784,19 +784,19 @@
         <v>17199</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9747</v>
+        <v>9850</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29569</v>
+        <v>29634</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02610825602319684</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01479620623397689</v>
+        <v>0.01495255431058203</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04488552458085067</v>
+        <v>0.0449848085523924</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>6233</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2177</v>
+        <v>2150</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13459</v>
+        <v>12726</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0161082171319706</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005626703851249319</v>
+        <v>0.005556408818774072</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03478032695779154</v>
+        <v>0.03288622309017068</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -834,19 +834,19 @@
         <v>4220</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10582</v>
+        <v>10539</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01552552657705489</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.003979037990513305</v>
+        <v>0.00396963400654016</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03893546239203831</v>
+        <v>0.03877489506191573</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -855,19 +855,19 @@
         <v>10453</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5303</v>
+        <v>5311</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18925</v>
+        <v>18399</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01586781081166647</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00804943048390978</v>
+        <v>0.008061628857310803</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02872769045575624</v>
+        <v>0.02792901992589185</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>12129</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6262</v>
+        <v>6748</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21828</v>
+        <v>22566</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03134298913965743</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01618306471372711</v>
+        <v>0.01743890248579714</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05640716012732649</v>
+        <v>0.0583135336610589</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6913</v>
+        <v>6680</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.007141413649221827</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02543327145613029</v>
+        <v>0.02457810704355836</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -926,19 +926,19 @@
         <v>14070</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8105</v>
+        <v>7978</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23541</v>
+        <v>24763</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02135790930588554</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0123030452186951</v>
+        <v>0.0121108488169441</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03573524694133622</v>
+        <v>0.03759018800680941</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>354318</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>342619</v>
+        <v>338904</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>365132</v>
+        <v>363170</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9156218078662256</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.885388347652751</v>
+        <v>0.8757877241316345</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9435670601928813</v>
+        <v>0.938497732487068</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>236</v>
@@ -976,19 +976,19 @@
         <v>262721</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>253197</v>
+        <v>254588</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>267566</v>
+        <v>267910</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9666282284928948</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9315860672634426</v>
+        <v>0.9367050144929399</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9844548621138436</v>
+        <v>0.9857191956419485</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>570</v>
@@ -997,19 +997,19 @@
         <v>617039</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>601502</v>
+        <v>601245</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>628930</v>
+        <v>627930</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9366660238592511</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.913080143361598</v>
+        <v>0.9126903954098375</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9547162783545533</v>
+        <v>0.9531978621627137</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>3822</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>984</v>
+        <v>1020</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9824</v>
+        <v>9156</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01027503944611138</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002644941965423633</v>
+        <v>0.002741561603442686</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02641201115240061</v>
+        <v>0.02461698083930566</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6499</v>
+        <v>5512</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.004178531379211844</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02551318028820979</v>
+        <v>0.02163827542510644</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -1143,19 +1143,19 @@
         <v>4886</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1814</v>
+        <v>2000</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10975</v>
+        <v>11865</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.007796987620872556</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.002894119725145588</v>
+        <v>0.003192184728016796</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01751282417514785</v>
+        <v>0.01893373977412109</v>
       </c>
     </row>
     <row r="10">
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12738</v>
+        <v>14134</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008972667720640619</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03424631124506514</v>
+        <v>0.03799979086133837</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12898</v>
+        <v>12221</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005325541303615676</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02058176822024086</v>
+        <v>0.01950052673451004</v>
       </c>
     </row>
     <row r="11">
@@ -1235,19 +1235,19 @@
         <v>11751</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5964</v>
+        <v>6631</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20529</v>
+        <v>20519</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03159337342433779</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0160349989295664</v>
+        <v>0.01782669819951131</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05519340539122104</v>
+        <v>0.05516559274414731</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1256,19 +1256,19 @@
         <v>3123</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8894</v>
+        <v>9528</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01226163136036333</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003714926693456589</v>
+        <v>0.003726127966820791</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03491708854982443</v>
+        <v>0.03740643981393002</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>15</v>
@@ -1277,19 +1277,19 @@
         <v>14875</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8823</v>
+        <v>8875</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>26038</v>
+        <v>25055</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02373558693722159</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01407941208360697</v>
+        <v>0.01416234590071862</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04154903844747401</v>
+        <v>0.03998047959145244</v>
       </c>
     </row>
     <row r="12">
@@ -1306,19 +1306,19 @@
         <v>353042</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>341214</v>
+        <v>342284</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>360018</v>
+        <v>359980</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9491589194089102</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9173595257746504</v>
+        <v>0.9202366974681266</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9679144444908918</v>
+        <v>0.9678123640527306</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>224</v>
@@ -1327,19 +1327,19 @@
         <v>250539</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>245374</v>
+        <v>243872</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>253741</v>
+        <v>253531</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9835598372604248</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9632817084661098</v>
+        <v>0.9573868810563283</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9961288153042523</v>
+        <v>0.9953034759385232</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>542</v>
@@ -1348,19 +1348,19 @@
         <v>603581</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>590814</v>
+        <v>591266</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>611527</v>
+        <v>611880</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9631418841382902</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9427697144612478</v>
+        <v>0.9434909488143174</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9758225087798279</v>
+        <v>0.9763853300043099</v>
       </c>
     </row>
     <row r="13">
@@ -1452,19 +1452,19 @@
         <v>7797</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3719</v>
+        <v>3824</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14910</v>
+        <v>15276</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01473139560285834</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007026184665889137</v>
+        <v>0.007225509171156221</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02817149873525433</v>
+        <v>0.02886329315354873</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1473,19 +1473,19 @@
         <v>2950</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>933</v>
+        <v>950</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7957</v>
+        <v>7839</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02007301295681392</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006350129778102886</v>
+        <v>0.006461464866857746</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0541369459614257</v>
+        <v>0.05333539084337709</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>11</v>
@@ -1494,19 +1494,19 @@
         <v>10747</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5706</v>
+        <v>5744</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19311</v>
+        <v>17946</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01589240043248815</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008437973275712406</v>
+        <v>0.008493553740311764</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02855709654631534</v>
+        <v>0.02653829385602311</v>
       </c>
     </row>
     <row r="15">
@@ -1523,19 +1523,19 @@
         <v>12368</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7070</v>
+        <v>6322</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>21761</v>
+        <v>20478</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02336820226305839</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01335758376769697</v>
+        <v>0.01194560140756525</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04111591152975436</v>
+        <v>0.03869204362433418</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5198</v>
+        <v>4226</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.006934774951748563</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03536463470253747</v>
+        <v>0.02875056564031061</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>13</v>
@@ -1565,19 +1565,19 @@
         <v>13387</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>7352</v>
+        <v>7415</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>22897</v>
+        <v>22944</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01979638361497186</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01087174331733237</v>
+        <v>0.01096496403472317</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03385901894523637</v>
+        <v>0.03392824522345303</v>
       </c>
     </row>
     <row r="16">
@@ -1594,19 +1594,19 @@
         <v>15965</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9224</v>
+        <v>8527</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26196</v>
+        <v>24802</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03016500462919315</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01742834820837755</v>
+        <v>0.0161106639159758</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04949512176638186</v>
+        <v>0.04686136218704622</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1615,19 +1615,19 @@
         <v>4243</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1109</v>
+        <v>1058</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10410</v>
+        <v>9732</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02886654509153617</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007547125526402418</v>
+        <v>0.007197283607430068</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07082933870382753</v>
+        <v>0.06621172703332188</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -1636,19 +1636,19 @@
         <v>20208</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12601</v>
+        <v>12458</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31658</v>
+        <v>32012</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02988278340397149</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01863344875318421</v>
+        <v>0.01842264354091436</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04681539792386597</v>
+        <v>0.04733778998096006</v>
       </c>
     </row>
     <row r="17">
@@ -1665,19 +1665,19 @@
         <v>493126</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>479968</v>
+        <v>480782</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>503225</v>
+        <v>504276</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9317353975048901</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9068748379386817</v>
+        <v>0.9084123968413029</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9508185744819426</v>
+        <v>0.9528031400381309</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>127</v>
@@ -1686,19 +1686,19 @@
         <v>138768</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>131262</v>
+        <v>132200</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>142886</v>
+        <v>143005</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9441256669999013</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8930631584606257</v>
+        <v>0.8994445751732474</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9721477768288344</v>
+        <v>0.972957125268611</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>593</v>
@@ -1707,19 +1707,19 @@
         <v>631894</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>616149</v>
+        <v>617213</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>643217</v>
+        <v>644007</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9344284325485686</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9111444277915686</v>
+        <v>0.9127177853403616</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9511717711376927</v>
+        <v>0.9523409550266539</v>
       </c>
     </row>
     <row r="18">
@@ -1811,19 +1811,19 @@
         <v>23645</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15351</v>
+        <v>14874</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34395</v>
+        <v>34457</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02658459700682708</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01725950598573696</v>
+        <v>0.01672359274061421</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03867149475070999</v>
+        <v>0.03874128064619314</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -1832,19 +1832,19 @@
         <v>7970</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3863</v>
+        <v>3786</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16029</v>
+        <v>15552</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01776036872102388</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008608179094735427</v>
+        <v>0.008436790385267045</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03571631910773236</v>
+        <v>0.03465385660648267</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>31</v>
@@ -1853,19 +1853,19 @@
         <v>31615</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21903</v>
+        <v>21490</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>43934</v>
+        <v>44542</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02362529746572785</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0163677191695378</v>
+        <v>0.01605887922439482</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03283077723634703</v>
+        <v>0.03328472734568875</v>
       </c>
     </row>
     <row r="20">
@@ -1882,19 +1882,19 @@
         <v>28717</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>18096</v>
+        <v>18829</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>41526</v>
+        <v>42769</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03228715244799735</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02034577401051786</v>
+        <v>0.02116994475514875</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04668889793630118</v>
+        <v>0.0480866229642436</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -1903,19 +1903,19 @@
         <v>8251</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3907</v>
+        <v>4048</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14710</v>
+        <v>15512</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01838435841010174</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.008705190248707379</v>
+        <v>0.009019983063408723</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03277730039348111</v>
+        <v>0.03456486175907145</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>35</v>
@@ -1924,19 +1924,19 @@
         <v>36967</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>26367</v>
+        <v>26515</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>52030</v>
+        <v>51362</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02762470144562091</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01970364512535736</v>
+        <v>0.01981391625000252</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03888085857708275</v>
+        <v>0.03838176135201482</v>
       </c>
     </row>
     <row r="21">
@@ -1953,19 +1953,19 @@
         <v>22497</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15610</v>
+        <v>14633</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>33820</v>
+        <v>32666</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02529411638644447</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01755131067796943</v>
+        <v>0.01645242912740896</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03802523998642276</v>
+        <v>0.03672747625797872</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -1974,19 +1974,19 @@
         <v>4887</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>10798</v>
+        <v>10725</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0108898370588162</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.004312966554359255</v>
+        <v>0.00431192341044111</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02406011863634728</v>
+        <v>0.02389855376710878</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>28</v>
@@ -1995,19 +1995,19 @@
         <v>27384</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>17624</v>
+        <v>18667</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>38347</v>
+        <v>38696</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02046348691681765</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01316966273435644</v>
+        <v>0.01394961017132803</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02865597776271848</v>
+        <v>0.02891638282596137</v>
       </c>
     </row>
     <row r="22">
@@ -2024,19 +2024,19 @@
         <v>814561</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>794016</v>
+        <v>796457</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>829451</v>
+        <v>830111</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9158341341587312</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.892734600487406</v>
+        <v>0.8954794429666245</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9325753871935925</v>
+        <v>0.9333176655822687</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>399</v>
@@ -2045,19 +2045,19 @@
         <v>427672</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>418262</v>
+        <v>416852</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>434920</v>
+        <v>434840</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9529654358100582</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9319978161973974</v>
+        <v>0.928856822723679</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9691159394547981</v>
+        <v>0.9689390595346079</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1162</v>
@@ -2066,19 +2066,19 @@
         <v>1242233</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1219830</v>
+        <v>1222860</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1258044</v>
+        <v>1258983</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9282865141718336</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9115453699721495</v>
+        <v>0.9138093644230776</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9401017722758613</v>
+        <v>0.9408029585171942</v>
       </c>
     </row>
     <row r="23">
@@ -2170,19 +2170,19 @@
         <v>6117</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2165</v>
+        <v>2890</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12675</v>
+        <v>12434</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01762830240638021</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.006240810359267914</v>
+        <v>0.008328881908026461</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03653071143981328</v>
+        <v>0.03583597215104159</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -2191,19 +2191,19 @@
         <v>4984</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1870</v>
+        <v>1940</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10958</v>
+        <v>10757</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01814582304535987</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.00680830034488203</v>
+        <v>0.007061507914143556</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03989357574489602</v>
+        <v>0.03916199433649172</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>11</v>
@@ -2212,19 +2212,19 @@
         <v>11101</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4997</v>
+        <v>5952</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>18348</v>
+        <v>18488</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01785697009264004</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.008038352622199743</v>
+        <v>0.009574656973839807</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02951497869772382</v>
+        <v>0.02973922393225199</v>
       </c>
     </row>
     <row r="25">
@@ -2241,19 +2241,19 @@
         <v>13418</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7154</v>
+        <v>7370</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21511</v>
+        <v>21168</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03867155289086061</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02061813826608849</v>
+        <v>0.02124051261073417</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06199377849156958</v>
+        <v>0.06100609944257182</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -2262,19 +2262,19 @@
         <v>13725</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7299</v>
+        <v>8173</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22482</v>
+        <v>22007</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0499683203807116</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02657267947269404</v>
+        <v>0.02975578401435848</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08184583359557861</v>
+        <v>0.08011682775490435</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>26</v>
@@ -2283,19 +2283,19 @@
         <v>27144</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>18834</v>
+        <v>17928</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>39862</v>
+        <v>38478</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04366305562437951</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0302959207720165</v>
+        <v>0.02883841822382525</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06412234255987131</v>
+        <v>0.06189481503728991</v>
       </c>
     </row>
     <row r="26">
@@ -2312,19 +2312,19 @@
         <v>21740</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>13382</v>
+        <v>13737</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>32805</v>
+        <v>31234</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06265579615683621</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03856734469298751</v>
+        <v>0.03959096223428908</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0945436316847538</v>
+        <v>0.09001646119409279</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -2333,19 +2333,19 @@
         <v>6451</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2741</v>
+        <v>2196</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14293</v>
+        <v>14668</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02348438299099704</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.009977169706925391</v>
+        <v>0.007994873325898891</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05203359926568178</v>
+        <v>0.0534004235431292</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>27</v>
@@ -2354,19 +2354,19 @@
         <v>28191</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>19473</v>
+        <v>18758</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>40150</v>
+        <v>39591</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04534781703194554</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03132479519450172</v>
+        <v>0.03017448778234182</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06458508933796202</v>
+        <v>0.06368578528166846</v>
       </c>
     </row>
     <row r="27">
@@ -2383,19 +2383,19 @@
         <v>305704</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>291340</v>
+        <v>294049</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>316374</v>
+        <v>315953</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.881044348545923</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8396459432278959</v>
+        <v>0.8474546899444011</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9117945909305437</v>
+        <v>0.9105830580736828</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>230</v>
@@ -2404,19 +2404,19 @@
         <v>249522</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>238617</v>
+        <v>238956</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>257883</v>
+        <v>257956</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9084014735829314</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8686989201651486</v>
+        <v>0.8699348685742719</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9388385416701817</v>
+        <v>0.9391047691718815</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>520</v>
@@ -2425,19 +2425,19 @@
         <v>555226</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>537142</v>
+        <v>538584</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>569372</v>
+        <v>569945</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8931321572510349</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8640417482107692</v>
+        <v>0.8663609769410496</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9158864661598981</v>
+        <v>0.916807845738395</v>
       </c>
     </row>
     <row r="28">
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5605</v>
+        <v>4715</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.009711086747982748</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05833122629168636</v>
+        <v>0.0490778207476751</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5410</v>
+        <v>5866</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.004274382173389394</v>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0216331232788707</v>
+        <v>0.02345680099867463</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6935</v>
+        <v>7142</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.005783453266047937</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02003359873220015</v>
+        <v>0.02063276539269558</v>
       </c>
     </row>
     <row r="30">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7096</v>
+        <v>6814</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02093539856097786</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07385025877646023</v>
+        <v>0.07091777611710579</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -2621,19 +2621,19 @@
         <v>4066</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1004</v>
+        <v>1021</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>9358</v>
+        <v>11087</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01625873224896391</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.00401571952233024</v>
+        <v>0.004084151800648503</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03742135394410508</v>
+        <v>0.0443344980943946</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>6</v>
@@ -2642,19 +2642,19 @@
         <v>6077</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>12246</v>
+        <v>12015</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01755683882154665</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.005911227141146669</v>
+        <v>0.005897844717380485</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0353780570430796</v>
+        <v>0.03470938242072133</v>
       </c>
     </row>
     <row r="31">
@@ -2671,7 +2671,7 @@
         <v>2808</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="F31" s="5" t="n">
         <v>7572</v>
@@ -2680,10 +2680,10 @@
         <v>0.02922614618924196</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.009403266278116339</v>
+        <v>0.009427273745256192</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07881084979090543</v>
+        <v>0.07880863018101435</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>7</v>
@@ -2692,19 +2692,19 @@
         <v>7242</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3073</v>
+        <v>3138</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>13741</v>
+        <v>14741</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02896006995198406</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01228695583662802</v>
+        <v>0.01254756482432451</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05494835119696288</v>
+        <v>0.05894904990724709</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>10</v>
@@ -2713,19 +2713,19 @@
         <v>10050</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>5059</v>
+        <v>5169</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>17585</v>
+        <v>17520</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02903392497805365</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01461369053226959</v>
+        <v>0.01493268699162591</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05080207200546151</v>
+        <v>0.05061355655709819</v>
       </c>
     </row>
     <row r="32">
@@ -2742,19 +2742,19 @@
         <v>90329</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>84276</v>
+        <v>84474</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>93552</v>
+        <v>94151</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9401273685017975</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.877122016477259</v>
+        <v>0.8791843108172226</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9736642625985927</v>
+        <v>0.9799036577993216</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>227</v>
@@ -2763,19 +2763,19 @@
         <v>237693</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>229498</v>
+        <v>228551</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>243479</v>
+        <v>243844</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9505068156256626</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9177340181644553</v>
+        <v>0.9139494148923164</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.973641811186264</v>
+        <v>0.9751035093175926</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>317</v>
@@ -2784,19 +2784,19 @@
         <v>328022</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>317763</v>
+        <v>318208</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>335046</v>
+        <v>335260</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9476257829343517</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9179881861493011</v>
+        <v>0.9192741972533097</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9679177986472514</v>
+        <v>0.9685359106141276</v>
       </c>
     </row>
     <row r="33">
@@ -2888,19 +2888,19 @@
         <v>56603</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>43133</v>
+        <v>43968</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>73904</v>
+        <v>75487</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02159865836984916</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01645881753900947</v>
+        <v>0.01677743797725379</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02820060457810999</v>
+        <v>0.02880468143295397</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>20</v>
@@ -2909,19 +2909,19 @@
         <v>20948</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>13128</v>
+        <v>12797</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>31215</v>
+        <v>32233</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01271860651042783</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.007970520305326273</v>
+        <v>0.00776988749322411</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01895241686112399</v>
+        <v>0.01957032670481642</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>75</v>
@@ -2930,19 +2930,19 @@
         <v>77551</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>62401</v>
+        <v>59720</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>96522</v>
+        <v>93953</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01817157675642252</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01462166949338856</v>
+        <v>0.01399352782166651</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02261702992610742</v>
+        <v>0.02201488065547752</v>
       </c>
     </row>
     <row r="35">
@@ -2959,19 +2959,19 @@
         <v>66085</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>51074</v>
+        <v>50435</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>83362</v>
+        <v>84430</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02521699172872011</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01948912469759286</v>
+        <v>0.01924523156165139</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03180972708246246</v>
+        <v>0.0322171845945521</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>30</v>
@@ -2980,19 +2980,19 @@
         <v>31281</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>21573</v>
+        <v>21577</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>43724</v>
+        <v>43983</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01899221718945388</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01309830952587505</v>
+        <v>0.01310064830435424</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02654722783437544</v>
+        <v>0.02670442669466255</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>92</v>
@@ -3001,19 +3001,19 @@
         <v>97366</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>80538</v>
+        <v>80214</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>121279</v>
+        <v>121048</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02281466224810874</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01887164460801454</v>
+        <v>0.01879562762074501</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02841796113113947</v>
+        <v>0.02836373080707338</v>
       </c>
     </row>
     <row r="36">
@@ -3030,19 +3030,19 @@
         <v>86890</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>70000</v>
+        <v>68475</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>105090</v>
+        <v>105806</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.033155966911871</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02671084892358138</v>
+        <v>0.02612881905402519</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0401007178504863</v>
+        <v>0.04037393572362954</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>27</v>
@@ -3051,19 +3051,19 @@
         <v>27887</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>18787</v>
+        <v>18285</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>39682</v>
+        <v>38501</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01693173387538494</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01140643321790644</v>
+        <v>0.01110197621278612</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02409292448071973</v>
+        <v>0.0233759120604617</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>113</v>
@@ -3072,19 +3072,19 @@
         <v>114778</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>95643</v>
+        <v>95261</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>137150</v>
+        <v>138139</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02689454281080569</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0224109451199002</v>
+        <v>0.02232140630228222</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03213677358292791</v>
+        <v>0.03236867965980879</v>
       </c>
     </row>
     <row r="37">
@@ -3101,19 +3101,19 @@
         <v>2411080</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2381025</v>
+        <v>2382853</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2437467</v>
+        <v>2438506</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9200283829895597</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9085598589457131</v>
+        <v>0.9092576188165801</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9300973958203218</v>
+        <v>0.9304938991593198</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1443</v>
@@ -3122,19 +3122,19 @@
         <v>1566915</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1550063</v>
+        <v>1548787</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1583526</v>
+        <v>1583454</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9513574424247333</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9411253500964951</v>
+        <v>0.9403511158762107</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9614427074765839</v>
+        <v>0.9613988374067262</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>3704</v>
@@ -3143,19 +3143,19 @@
         <v>3977995</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3940320</v>
+        <v>3944328</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4008051</v>
+        <v>4008947</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.932119218184663</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9232911952195724</v>
+        <v>0.9242305047571224</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9391618939326991</v>
+        <v>0.9393718248247802</v>
       </c>
     </row>
     <row r="38">
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4726</v>
+        <v>6183</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002662179346943346</v>
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01215043773587731</v>
+        <v>0.01589752704073055</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4214</v>
+        <v>4848</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001552683522789617</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006318387718688462</v>
+        <v>0.00726995956871085</v>
       </c>
     </row>
     <row r="5">
@@ -3646,7 +3646,7 @@
         <v>387915</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>384224</v>
+        <v>382767</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>388950</v>
@@ -3655,7 +3655,7 @@
         <v>0.9973378206530567</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9878495622641231</v>
+        <v>0.9841024729592696</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -3680,7 +3680,7 @@
         <v>665846</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>662667</v>
+        <v>662033</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>666881</v>
@@ -3689,7 +3689,7 @@
         <v>0.9984473164772104</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9936816122813115</v>
+        <v>0.9927300404312889</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5454</v>
+        <v>4841</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.003211746168147373</v>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01794082127332374</v>
+        <v>0.01592458752483625</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4890</v>
+        <v>4907</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001535430246789273</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.007690244424213868</v>
+        <v>0.007717248457479031</v>
       </c>
     </row>
     <row r="10">
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7169</v>
+        <v>7051</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.006262337892125765</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0216015014427265</v>
+        <v>0.02124487701867478</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6445</v>
+        <v>5572</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006022303114367306</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02120078758384683</v>
+        <v>0.01832917627383687</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -3936,19 +3936,19 @@
         <v>3909</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>977</v>
+        <v>945</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10213</v>
+        <v>9307</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006147585156773621</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0015357077005622</v>
+        <v>0.001486714583704998</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01606104995920867</v>
+        <v>0.01463553505246507</v>
       </c>
     </row>
     <row r="12">
@@ -3965,7 +3965,7 @@
         <v>329817</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>324726</v>
+        <v>324844</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>331895</v>
@@ -3974,7 +3974,7 @@
         <v>0.9937376621078743</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9783984985572735</v>
+        <v>0.9787551229813252</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -3986,19 +3986,19 @@
         <v>301194</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>295652</v>
+        <v>296519</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>303102</v>
+        <v>303100</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9907659507174853</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9725355203144079</v>
+        <v>0.9753892621792525</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9970416385736981</v>
+        <v>0.9970373550528884</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>596</v>
@@ -4007,19 +4007,19 @@
         <v>631010</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>624926</v>
+        <v>624905</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>634062</v>
+        <v>634017</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9923169845964371</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9827490792747603</v>
+        <v>0.9827152687691891</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.997116199870673</v>
+        <v>0.9970443850049491</v>
       </c>
     </row>
     <row r="13">
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6730</v>
+        <v>6443</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004433377961175627</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01558074609439688</v>
+        <v>0.01491535220447539</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6794</v>
+        <v>7133</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02217166361023709</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07442710385798054</v>
+        <v>0.07814897542399793</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -4153,19 +4153,19 @@
         <v>3939</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>991</v>
+        <v>1000</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8944</v>
+        <v>9892</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.007527937376007361</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001894067216517562</v>
+        <v>0.001911429390983391</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01709354239723001</v>
+        <v>0.01890526826235734</v>
       </c>
     </row>
     <row r="15">
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5259</v>
+        <v>5097</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.002362741475011454</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01217468720004759</v>
+        <v>0.01179944901201587</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6420</v>
+        <v>5654</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.001950545842301199</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01227106934561689</v>
+        <v>0.01080559617502182</v>
       </c>
     </row>
     <row r="16">
@@ -4245,19 +4245,19 @@
         <v>7291</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2983</v>
+        <v>2991</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16108</v>
+        <v>15374</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01687929817470182</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006906213416890001</v>
+        <v>0.006923555640867666</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0372916019621479</v>
+        <v>0.0355939288480535</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5908</v>
+        <v>5032</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01197122755729836</v>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06472857767059549</v>
+        <v>0.05512706788323391</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -4287,19 +4287,19 @@
         <v>8384</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3245</v>
+        <v>3277</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16677</v>
+        <v>16673</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01602305330198784</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00620191253289874</v>
+        <v>0.006264018943311182</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0318736106723975</v>
+        <v>0.03186652952060155</v>
       </c>
     </row>
     <row r="17">
@@ -4316,19 +4316,19 @@
         <v>421712</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>412490</v>
+        <v>413036</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>426741</v>
+        <v>427107</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9763245823891111</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9549749771066659</v>
+        <v>0.9562387626939199</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9879681289971729</v>
+        <v>0.9888152896383854</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>86</v>
@@ -4337,19 +4337,19 @@
         <v>88162</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>82737</v>
+        <v>82286</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>90291</v>
+        <v>90275</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9658571088324646</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9064198999573628</v>
+        <v>0.9014791027195352</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9891785404358532</v>
+        <v>0.9890056355280857</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>488</v>
@@ -4358,19 +4358,19 @@
         <v>509873</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>499195</v>
+        <v>500267</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>516110</v>
+        <v>515951</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9744984634797036</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9540895607292315</v>
+        <v>0.9561389598676373</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9864183235793786</v>
+        <v>0.9861142129771349</v>
       </c>
     </row>
     <row r="18">
@@ -4475,19 +4475,19 @@
         <v>3252</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9373</v>
+        <v>9330</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.006597334046201572</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001799037195612725</v>
+        <v>0.001802128487524103</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01901258107687145</v>
+        <v>0.01892552595018244</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -4496,19 +4496,19 @@
         <v>3252</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9860</v>
+        <v>9305</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.002334440869516646</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0006402269783129423</v>
+        <v>0.0006389990266062265</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.007077097568354467</v>
+        <v>0.006678889107467811</v>
       </c>
     </row>
     <row r="20">
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5774</v>
+        <v>4801</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001061287849749905</v>
@@ -4537,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.006413859216612465</v>
+        <v>0.005333019785564437</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4794</v>
+        <v>4776</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0006857552916851739</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.003441186229608383</v>
+        <v>0.003427876791105907</v>
       </c>
     </row>
     <row r="21">
@@ -4588,19 +4588,19 @@
         <v>5133</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10285</v>
+        <v>11317</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.005701551281745784</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.002237947105834696</v>
+        <v>0.002232268939909941</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01142457038913439</v>
+        <v>0.01257061596423764</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -4609,19 +4609,19 @@
         <v>3174</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>923</v>
+        <v>944</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8512</v>
+        <v>9265</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.006437235177831692</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.001872743709411207</v>
+        <v>0.001914598831402033</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01726526986446476</v>
+        <v>0.01879342416938385</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>8</v>
@@ -4630,19 +4630,19 @@
         <v>8306</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3866</v>
+        <v>3874</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>16271</v>
+        <v>15831</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.005961870153284051</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002774548877605145</v>
+        <v>0.002780273299974699</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01167805645114977</v>
+        <v>0.01136250584547116</v>
       </c>
     </row>
     <row r="22">
@@ -4659,19 +4659,19 @@
         <v>894171</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>887824</v>
+        <v>887193</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>897411</v>
+        <v>898101</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9932371608685043</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9861872452437987</v>
+        <v>0.9854869432499479</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9968369174758916</v>
+        <v>0.9976026146924137</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>479</v>
@@ -4680,19 +4680,19 @@
         <v>486573</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>479346</v>
+        <v>479296</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>490789</v>
+        <v>490812</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9869654307759668</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9723052582690591</v>
+        <v>0.9722046821708688</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9955168821092026</v>
+        <v>0.9955631629086036</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1327</v>
@@ -4701,19 +4701,19 @@
         <v>1380744</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1371648</v>
+        <v>1370034</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1386633</v>
+        <v>1386162</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9910179336855142</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9844896775036807</v>
+        <v>0.983330832351776</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9952449171213542</v>
+        <v>0.9949069204616323</v>
       </c>
     </row>
     <row r="23">
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6104</v>
+        <v>5752</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.002579727003944713</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01542856730960085</v>
+        <v>0.01453843044736793</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -4826,19 +4826,19 @@
         <v>3001</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8135</v>
+        <v>9173</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01054055686249883</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.003230321713927109</v>
+        <v>0.003258142255550836</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02857642905430422</v>
+        <v>0.03222307527880936</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -4847,19 +4847,19 @@
         <v>4021</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1090</v>
+        <v>1027</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10698</v>
+        <v>11003</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.005911040390150232</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001602985652357849</v>
+        <v>0.001509364468229552</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0157254810675632</v>
+        <v>0.01617460011429814</v>
       </c>
     </row>
     <row r="25">
@@ -4876,19 +4876,19 @@
         <v>4775</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10464</v>
+        <v>10539</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01206887598424937</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004726737698850475</v>
+        <v>0.00473087287643134</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02645150362348503</v>
+        <v>0.0266399287682505</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6384</v>
+        <v>4572</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.003972747749928892</v>
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0224266239753571</v>
+        <v>0.0160603396369649</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -4918,19 +4918,19 @@
         <v>5905</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2755</v>
+        <v>2804</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>12250</v>
+        <v>12170</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.008680945222929618</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004049862619733436</v>
+        <v>0.004121733641980671</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01800721500339464</v>
+        <v>0.01788920672732607</v>
       </c>
     </row>
     <row r="26">
@@ -4947,19 +4947,19 @@
         <v>7319</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3096</v>
+        <v>3124</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14563</v>
+        <v>14705</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01850022144805912</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.00782620700985448</v>
+        <v>0.007896811111745559</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03681304480763029</v>
+        <v>0.03717072986473844</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6333</v>
+        <v>5965</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.006395954736958196</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02224774488926168</v>
+        <v>0.02095571057384595</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>9</v>
@@ -4989,19 +4989,19 @@
         <v>9140</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4197</v>
+        <v>4608</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>16809</v>
+        <v>17392</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01343503271254505</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.006170009958850446</v>
+        <v>0.006773295715707138</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02470858261161794</v>
+        <v>0.02556597035650507</v>
       </c>
     </row>
     <row r="27">
@@ -5018,19 +5018,19 @@
         <v>382493</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>373689</v>
+        <v>373188</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>387819</v>
+        <v>388158</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9668511755637468</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9445958862854985</v>
+        <v>0.9433305848145266</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9803128527849971</v>
+        <v>0.9811704162415023</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>272</v>
@@ -5039,19 +5039,19 @@
         <v>278719</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>271713</v>
+        <v>272426</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>281899</v>
+        <v>282629</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9790907406506141</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9544798337675681</v>
+        <v>0.9569849427611389</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9902632201493214</v>
+        <v>0.9928279267265382</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>634</v>
@@ -5060,19 +5060,19 @@
         <v>661212</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>651483</v>
+        <v>650360</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>668792</v>
+        <v>668629</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9719729816743751</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9576722527988756</v>
+        <v>0.9560201977405041</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9831159456119453</v>
+        <v>0.9828759464973927</v>
       </c>
     </row>
     <row r="28">
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4667</v>
+        <v>4771</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.007719580011272481</v>
@@ -5270,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03770423485888102</v>
+        <v>0.03854984313781671</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -5282,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4985</v>
+        <v>5565</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.003638178366665574</v>
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01841798258732917</v>
+        <v>0.02056145478595323</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2</v>
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>7230</v>
+        <v>6503</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.004918855541429143</v>
@@ -5312,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01833040414076159</v>
+        <v>0.01648590833704392</v>
       </c>
     </row>
     <row r="32">
@@ -5329,7 +5329,7 @@
         <v>122813</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>119101</v>
+        <v>118997</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>123768</v>
@@ -5338,7 +5338,7 @@
         <v>0.9922804199887275</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9622957651411185</v>
+        <v>0.9614501568621833</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -5350,7 +5350,7 @@
         <v>269684</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>265684</v>
+        <v>265104</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>270669</v>
@@ -5359,7 +5359,7 @@
         <v>0.9963618216333344</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9815820174126708</v>
+        <v>0.9794385452140472</v>
       </c>
       <c r="P32" s="6" t="n">
         <v>1</v>
@@ -5371,7 +5371,7 @@
         <v>392496</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>387206</v>
+        <v>387933</v>
       </c>
       <c r="T32" s="5" t="n">
         <v>394436</v>
@@ -5380,7 +5380,7 @@
         <v>0.9950811444585709</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9816695958592373</v>
+        <v>0.9835140916629569</v>
       </c>
       <c r="W32" s="6" t="n">
         <v>1</v>
@@ -5475,19 +5475,19 @@
         <v>3971</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>10001</v>
+        <v>9897</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.001543667366752335</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.000382887004073389</v>
+        <v>0.0003845788591551648</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.00388760213163707</v>
+        <v>0.003847371809475644</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>9</v>
@@ -5496,19 +5496,19 @@
         <v>9253</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>4674</v>
+        <v>4506</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>17103</v>
+        <v>16044</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.005374951405390046</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.002715267196298646</v>
+        <v>0.002617337248431587</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.009934558726387245</v>
+        <v>0.00931977970020305</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>13</v>
@@ -5517,19 +5517,19 @@
         <v>13224</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>7264</v>
+        <v>7661</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>20998</v>
+        <v>22266</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.003079716760265614</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001691591810846357</v>
+        <v>0.001784049585634992</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.004890038474751168</v>
+        <v>0.005185359770309394</v>
       </c>
     </row>
     <row r="35">
@@ -5546,19 +5546,19 @@
         <v>6751</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2860</v>
+        <v>2890</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>13563</v>
+        <v>12823</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.002624194019501569</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.001111820461090132</v>
+        <v>0.001123623111300172</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.005272664016790752</v>
+        <v>0.004984741388327302</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5689</v>
+        <v>6768</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0006569240049654514</v>
@@ -5579,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.003304299862483832</v>
+        <v>0.00393147119123649</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>8</v>
@@ -5588,19 +5588,19 @@
         <v>7881</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3829</v>
+        <v>3769</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>15718</v>
+        <v>14969</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.001835470478717176</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0008918154842148699</v>
+        <v>0.0008778189220640497</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.003660536649012201</v>
+        <v>0.003486088527998238</v>
       </c>
     </row>
     <row r="36">
@@ -5617,19 +5617,19 @@
         <v>22776</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>14349</v>
+        <v>14399</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>34768</v>
+        <v>34118</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.008854074268054853</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0055778768417039</v>
+        <v>0.005597296417616736</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01351575902282515</v>
+        <v>0.01326316047215706</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>9</v>
@@ -5638,19 +5638,19 @@
         <v>8903</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>4073</v>
+        <v>4189</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>16119</v>
+        <v>16431</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.005171236661737451</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.002365998715965716</v>
+        <v>0.002433453094768652</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.009363353699392502</v>
+        <v>0.009544494342098572</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>30</v>
@@ -5659,19 +5659,19 @@
         <v>31679</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>21965</v>
+        <v>21318</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>44626</v>
+        <v>45041</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.007377540444265791</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.005115352181167358</v>
+        <v>0.00496463440410662</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01039273744672623</v>
+        <v>0.01048934665138813</v>
       </c>
     </row>
     <row r="37">
@@ -5688,19 +5688,19 @@
         <v>2538919</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2524942</v>
+        <v>2525341</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2550251</v>
+        <v>2549546</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9869780643456912</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9815446650956943</v>
+        <v>0.9816997910430908</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9913831910265819</v>
+        <v>0.9911093089593462</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1658</v>
@@ -5709,19 +5709,19 @@
         <v>1702262</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1691531</v>
+        <v>1692490</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1709524</v>
+        <v>1709029</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9887968879279071</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9825634234588023</v>
+        <v>0.9831204740555268</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9930152571085812</v>
+        <v>0.9927277336775949</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4051</v>
@@ -5730,19 +5730,19 @@
         <v>4241181</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4227612</v>
+        <v>4222619</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4254915</v>
+        <v>4254481</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9877072723167514</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9845471922994855</v>
+        <v>0.9833842487482295</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9909056002556316</v>
+        <v>0.9908045598276741</v>
       </c>
     </row>
     <row r="38">
